--- a/nr-rm-extension-nationality/ig/StructureDefinition-as-person.xlsx
+++ b/nr-rm-extension-nationality/ig/StructureDefinition-as-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T12:07:38+00:00</t>
+    <t>2025-10-08T12:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil générique créé à partir de Person dans le contexte de l'Annuaire Santé pour décrire les différents concepts utilisés pour définir et caractériser un professionnel en tant que personne physique (données restreintes).</t>
+    <t>Profil générique créé à partir de Person dans le contexte de l'Annuaire Santé pour décrire les informations relatives à la Personne Physique (données restreintes).</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -455,7 +455,7 @@
     <t>Person.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -493,7 +493,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -517,7 +517,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -560,7 +560,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -824,7 +824,7 @@
 </t>
   </si>
   <si>
-    <t>Le nom de famille (également nommé nom de naissance) ou le nom d'usage du professionnel.</t>
+    <t>Le nom civil (également nommé nom de naissance ou nom de famille).</t>
   </si>
   <si>
     <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
@@ -852,7 +852,7 @@
 middle name</t>
   </si>
   <si>
-    <t>Prénom(s) déclarés à sa naissance du professionnel.</t>
+    <t>Prénom(s) civil(s) déclarés à la naissance du professionnel.</t>
   </si>
   <si>
     <t>Given name.</t>
@@ -1211,7 +1211,7 @@
     <t>Person.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1295,7 +1295,7 @@
     <t>Person.link.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|RelatedPerson|Person)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|RelatedPerson|4.0.1|Person|4.0.1)
 </t>
   </si>
   <si>
@@ -2406,7 +2406,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>118</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>198</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>205</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>224</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>300</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>351</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>361</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>378</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>390</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>421</v>
       </c>
@@ -8552,12 +8552,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN60">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
